--- a/OUTPUT.xlsx
+++ b/OUTPUT.xlsx
@@ -16,82 +16,82 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="26">
   <si>
-    <t>Day 1</t>
+    <t>Week1</t>
   </si>
   <si>
     <t>3 pm</t>
   </si>
   <si>
-    <t>Team One</t>
-  </si>
-  <si>
-    <t>Team Three</t>
-  </si>
-  <si>
-    <t>Team Five</t>
-  </si>
-  <si>
-    <t>Team Seven</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>7 pm</t>
   </si>
   <si>
-    <t>Team Ten</t>
-  </si>
-  <si>
-    <t>Team Eight</t>
-  </si>
-  <si>
-    <t>Team Six</t>
-  </si>
-  <si>
-    <t>Team Four</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Team Two</t>
-  </si>
-  <si>
-    <t>Team Nine</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 7</t>
+    <t>I</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>Week4</t>
+  </si>
+  <si>
+    <t>Week5</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Week7</t>
   </si>
   <si>
     <t>vs</t>
   </si>
   <si>
-    <t>Team Eleven</t>
+    <t>K</t>
   </si>
   <si>
     <t>at</t>
   </si>
   <si>
-    <t>Location One</t>
-  </si>
-  <si>
-    <t>Location Two</t>
-  </si>
-  <si>
-    <t>Location Three</t>
-  </si>
-  <si>
-    <t>Location Four</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -524,7 +524,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -544,7 +544,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -592,7 +592,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -606,13 +606,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -626,13 +626,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -646,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -671,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -687,19 +687,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -713,13 +713,13 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -727,19 +727,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -747,13 +747,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>21</v>
@@ -775,19 +775,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -795,19 +795,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -815,19 +815,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -835,13 +835,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -896,19 +896,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -916,13 +916,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -942,13 +942,13 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -964,19 +964,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -984,13 +984,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -1004,19 +1004,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1030,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -1065,13 +1065,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -1085,19 +1085,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1105,19 +1105,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1125,7 +1125,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -1153,13 +1153,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
@@ -1173,13 +1173,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -1199,7 +1199,7 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
@@ -1213,13 +1213,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -1254,19 +1254,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1348,13 +1348,13 @@
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1443,13 +1443,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
         <v>21</v>
@@ -1463,19 +1463,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1503,7 +1503,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -1515,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1531,19 +1531,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1551,19 +1551,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E71" t="s">
         <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1571,19 +1571,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
         <v>12</v>
       </c>
-      <c r="C72" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1591,19 +1591,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1632,7 +1632,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
         <v>19</v>
@@ -1652,13 +1652,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
@@ -1672,13 +1672,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
         <v>21</v>
@@ -1692,13 +1692,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
         <v>21</v>
@@ -1720,19 +1720,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1740,19 +1740,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1760,7 +1760,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
@@ -1772,7 +1772,7 @@
         <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT.xlsx
+++ b/OUTPUT.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="26">
-  <si>
-    <t>Week1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">May  1 </t>
   </si>
   <si>
     <t>3 pm</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>Team One</t>
+  </si>
+  <si>
+    <t>Team Three</t>
+  </si>
+  <si>
+    <t>Team Five</t>
+  </si>
+  <si>
+    <t>Team Seven</t>
   </si>
   <si>
     <t>7 pm</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Week2</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Week3</t>
-  </si>
-  <si>
-    <t>Week4</t>
-  </si>
-  <si>
-    <t>Week5</t>
-  </si>
-  <si>
-    <t>Week6</t>
-  </si>
-  <si>
-    <t>Week7</t>
+    <t>Team Nin</t>
+  </si>
+  <si>
+    <t>Team Two</t>
+  </si>
+  <si>
+    <t>Team Four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May  2 </t>
+  </si>
+  <si>
+    <t>Team Six</t>
+  </si>
+  <si>
+    <t>Team Eight</t>
+  </si>
+  <si>
+    <t>Team Ten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May  8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May  9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 22 </t>
   </si>
   <si>
     <t>vs</t>
   </si>
   <si>
-    <t>K</t>
+    <t>Team Eleven</t>
   </si>
   <si>
     <t>at</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1652,19 +1652,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
         <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1672,19 +1672,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
         <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1692,19 +1692,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1712,7 +1700,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1720,19 +1720,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1740,38 +1740,18 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" t="s">
         <v>25</v>
       </c>
     </row>
